--- a/Assets/Excels/GameConfigs.xlsx
+++ b/Assets/Excels/GameConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\TestPlugins\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2CFBF1-6038-44BD-B910-8FD9493B29C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79293D10-3D9D-4723-AB66-D781B9F24E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7010" yWindow="2950" windowWidth="28800" windowHeight="16910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelConfig" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>Small=1,小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,20 +262,37 @@
     <t>#B Sc:Commom.Structs, Bt:SD</t>
   </si>
   <si>
+    <t>#B Na:PlayerItems, Sc:Player.Test, Bt:HT, Ds:CSP, NFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#B  Na:Gamelevels, Sc:Game.Test, Bt:HT, Ds:GameLevel  #FBI ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#B  Na:Gamelevels, Sc:Game.Test, Bt:HT, NSI, NFT 
+#FBI ID,Level  #FBG Name  #FBR Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#B  Na:PlayerInfos, Sc:Player.Test, Bt:VT
 #A LT:Game.Test.GameLevel, LTS:Game.Test.Gamelevels</t>
-  </si>
-  <si>
-    <t>#B Na:PlayerItems, Sc:Player.Test, Bt:HT, Ds:CSP, NFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#B  Na:Gamelevels, Sc:Game.Test, Bt:HT, Ds:GameLevel  #FBI ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#B  Na:Gamelevels, Sc:Game.Test, Bt:HT, NSI, NFT 
-#FBI ID,Level  #FBG Name  #FBR Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,5,10 #JA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,9,10,20 #JA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -451,6 +468,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -796,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -819,20 +839,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="I1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="I1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -907,21 +927,21 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="I5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="I5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1018,27 +1038,27 @@
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="I12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="I12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
       <c r="I13" s="1" t="s">
@@ -1110,12 +1130,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1148,13 +1168,13 @@
     <row r="19" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1190,36 +1210,36 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="1">
@@ -1234,8 +1254,8 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1247,8 +1267,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="1">
         <v>0.5</v>
       </c>
@@ -1270,7 +1290,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:F1"/>
@@ -1290,7 +1323,7 @@
     <mergeCell ref="E26:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I12 A12:H16 N12:XFD16 I13:M15 A17:XFD27 A28:B28 C28:XFD30 A31:XFD1048576 A5:XFD11">
+  <conditionalFormatting sqref="A5:XFD11 I12 A12:H16 N12:XFD16 I13:M15 A17:XFD27 A28:B28 C28:XFD30 A31:XFD1048576">
     <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="#B">
       <formula>LEFT(A5,LEN("#B"))="#B"</formula>
     </cfRule>
